--- a/informe_ventas_2025.xlsx
+++ b/informe_ventas_2025.xlsx
@@ -74,7 +74,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -186,16 +186,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="0.5">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <dLbls>
-            <showVal val="1"/>
-          </dLbls>
           <cat>
             <numRef>
               <f>'Ventas_2025'!$B$2:$B$6</f>
@@ -207,6 +201,7 @@
             </numRef>
           </val>
         </ser>
+        <dLbls/>
         <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -243,477 +238,6 @@
           <orientation val="minMax"/>
         </scaling>
         <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Total Vendido</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Ventas por Producto</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Ventas_2025'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln w="0.5">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <dLbls/>
-          <cat>
-            <numRef>
-              <f>'Ventas_2025'!$B$2:$B$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Ventas_2025'!$E$2:$E$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Producto</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Total Vendido</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Ventas por Producto</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Ventas_2025'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln w="0.5">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <dLbls/>
-          <cat>
-            <numRef>
-              <f>'Ventas_2025'!$B$2:$B$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Ventas_2025'!$E$2:$E$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Producto</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Total Vendido</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Ventas por Producto</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Ventas_2025'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln w="0.5">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <dLbls/>
-          <cat>
-            <numRef>
-              <f>'Ventas_2025'!$B$2:$B$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Ventas_2025'!$E$2:$E$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Producto</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Total Vendido</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Ventas por Producto</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Ventas_2025'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln w="0.5">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <dLbls>
-            <showVal val="1"/>
-          </dLbls>
-          <cat>
-            <numRef>
-              <f>'Ventas_2025'!$B$2:$B$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Ventas_2025'!$E$2:$E$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Producto</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
         <title>
           <tx>
             <rich>
@@ -762,94 +286,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="3" name="Chart 3"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="4" name="Chart 4"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="5" name="Chart 5"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
